--- a/Documentation/Parts_v1_1.xlsx
+++ b/Documentation/Parts_v1_1.xlsx
@@ -94,9 +94,6 @@
     <t>28 DIP</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/CL21B105KBFNNNE/1276-1029-1-ND/3889115</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-search/en?vendor=0&amp;keywords=609-3210-ND</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/BusBoard-Prototype-Systems/BB170-BK/?qs=sGAEpiMZZMtgbBHFKsFQgo04jOHntgNPg9BCaanvgpo%3d</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/UMK212F105ZG-T/587-1308-1-ND/931085</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -663,15 +663,15 @@
         <v>0.17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>0.7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0.30591000000000002</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -733,15 +733,15 @@
         <v>0.30591000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>0.39089000000000002</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>0.52634999999999998</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>0.1883</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>0.745</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -895,12 +895,12 @@
         <v>5.01</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -918,12 +918,12 @@
         <v>1.37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -941,12 +941,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -964,7 +964,7 @@
         <v>4.0800000000000003E-3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>3.2599999999999999E-3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,21 +1070,21 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E20">
-        <v>7.0999999999999994E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F20">
-        <v>1.7850000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1102,30 +1102,30 @@
         <v>3.0249999999999999E-2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3">
         <f t="array" ref="D23">MMULT(TRANSPOSE(C2:C21),D2:D21)</f>
-        <v>33.32</v>
+        <v>33.36</v>
       </c>
       <c r="E23" s="3">
         <f t="array" ref="E23">MMULT(TRANSPOSE(C2:C21),E2:E21)</f>
-        <v>29.9678</v>
+        <v>30.015800000000002</v>
       </c>
       <c r="F23" s="3">
         <f t="array" ref="F23">MMULT(TRANSPOSE(C2:C21),F2:F21)</f>
-        <v>13.255899999999999</v>
+        <v>13.267299999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1143,12 +1143,12 @@
         <v>0.432</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1166,12 +1166,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1189,12 +1189,12 @@
         <v>3.37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3">
         <f t="array" ref="D30">MMULT(TRANSPOSE(C25:C28),D25:D28)</f>
@@ -1232,19 +1232,19 @@
     <row r="31" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3">
         <f>D23 + D30</f>
-        <v>39</v>
+        <v>39.04</v>
       </c>
       <c r="E32" s="3">
         <f>E23 + E30</f>
-        <v>35.467799999999997</v>
+        <v>35.515799999999999</v>
       </c>
       <c r="F32" s="3">
         <f>F23 + F30</f>
-        <v>18.164899999999999</v>
+        <v>18.176299999999998</v>
       </c>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1253,20 +1253,20 @@
     <hyperlink ref="G18" r:id="rId1"/>
     <hyperlink ref="G7" r:id="rId2"/>
     <hyperlink ref="G10" r:id="rId3"/>
-    <hyperlink ref="G20" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G12" r:id="rId6"/>
-    <hyperlink ref="G19" r:id="rId7"/>
-    <hyperlink ref="G17" r:id="rId8"/>
-    <hyperlink ref="G16" r:id="rId9"/>
-    <hyperlink ref="G8" r:id="rId10"/>
-    <hyperlink ref="G13" r:id="rId11"/>
-    <hyperlink ref="G15" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G21" r:id="rId14"/>
-    <hyperlink ref="G25" r:id="rId15"/>
-    <hyperlink ref="G26" r:id="rId16"/>
-    <hyperlink ref="G27" r:id="rId17"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G19" r:id="rId6"/>
+    <hyperlink ref="G17" r:id="rId7"/>
+    <hyperlink ref="G16" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
+    <hyperlink ref="G25" r:id="rId14"/>
+    <hyperlink ref="G26" r:id="rId15"/>
+    <hyperlink ref="G27" r:id="rId16"/>
+    <hyperlink ref="G3" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
